--- a/IS_data.xlsx
+++ b/IS_data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shai\Documents\GitHub\python-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA66E19-EBA3-485D-BAE0-D99297ADD5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A898284-FD5B-4617-AE0F-6C9D51BE8B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -629,7 +632,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,13 +658,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -685,21 +704,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1003,13 +1032,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="10" max="10" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" customWidth="1"/>
+    <col min="17" max="17" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.26953125" customWidth="1"/>
+    <col min="19" max="20" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.26953125" customWidth="1"/>
+    <col min="22" max="22" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" customWidth="1"/>
+    <col min="29" max="29" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -1155,73 +1211,73 @@
       <c r="I2" t="s">
         <v>118</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>245122000000</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>74114000000</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>171008000000</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>29510000000</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>7609000000</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>24456000000</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>32065000000</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>61575000000</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>135689000000</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>3157000000</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <v>2935000000</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>22287000000</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>133009000000</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="3">
         <v>0.54262367310000004</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="3">
         <v>109433000000</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="3">
         <v>0.44644299570000001</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3">
         <v>-1646000000</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="3">
         <v>107787000000</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="3">
         <v>0.43972797219999998</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="3">
         <v>19651000000</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="3">
         <v>88136000000</v>
       </c>
       <c r="AG2">
@@ -1765,11 +1821,8 @@
       <c r="N7">
         <v>4540000000</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
+      <c r="O7" s="7">
+        <v>5150000000</v>
       </c>
       <c r="Q7">
         <v>5150000000</v>
@@ -1841,122 +1894,119 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>96773000000</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>79113000000</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>17660000000</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>0.182</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>3969000000</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
+        <v>4800000000</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4800000000</v>
+      </c>
+      <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4800000000</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="S8" s="3">
         <v>8769000000</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="3">
         <v>87882000000</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="3">
         <v>1066000000</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="3">
         <v>156000000</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
         <v>4667000000</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="3">
         <v>14796000000</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="3">
         <v>0.15289388570000001</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="3">
         <v>8891000000</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="3">
         <v>9.1874799800000004E-2</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="3">
         <v>1082000000</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="3">
         <v>9973000000</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="3">
         <v>0.1030556044</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="3">
         <v>-5001000000</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="3">
         <v>14999000000</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="3">
         <v>0.15499157820000001</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="3">
         <v>4.7300000000000004</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="3">
         <v>4.3</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="3">
         <v>3174000000</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="3">
         <v>3485000000</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AM8" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2003,11 +2053,8 @@
       <c r="N9">
         <v>3075000000</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
+      <c r="O9" s="7">
+        <v>3946000000</v>
       </c>
       <c r="Q9">
         <v>3946000000</v>
@@ -2122,11 +2169,8 @@
       <c r="N10">
         <v>2593000000</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
+      <c r="O10" s="7">
+        <v>4517000000</v>
       </c>
       <c r="Q10">
         <v>4517000000</v>
@@ -2241,11 +2285,8 @@
       <c r="N11">
         <v>1491000000</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
+      <c r="O11" s="7">
+        <v>3145000000</v>
       </c>
       <c r="Q11">
         <v>3145000000</v>
@@ -2955,11 +2996,8 @@
       <c r="N17">
         <v>31370000000</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
+      <c r="O17" s="7">
+        <v>26097000000</v>
       </c>
       <c r="Q17">
         <v>26097000000</v>
@@ -3074,11 +3112,8 @@
       <c r="N18">
         <v>29915000000</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
+      <c r="O18" s="7">
+        <v>24932000000</v>
       </c>
       <c r="Q18">
         <v>24932000000</v>
@@ -3193,11 +3228,8 @@
       <c r="N19">
         <v>26251000000</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
+      <c r="O19" s="7">
+        <v>25094000000</v>
       </c>
       <c r="Q19">
         <v>25094000000</v>
@@ -3312,11 +3344,8 @@
       <c r="N20">
         <v>21914000000</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
+      <c r="O20" s="7">
+        <v>21973000000</v>
       </c>
       <c r="Q20">
         <v>21973000000</v>
@@ -3431,11 +3460,8 @@
       <c r="N21">
         <v>18752000000</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
+      <c r="O21" s="7">
+        <v>19916000000</v>
       </c>
       <c r="Q21">
         <v>19916000000</v>
@@ -4102,7 +4128,101 @@
         <v>168</v>
       </c>
     </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="L27" s="4">
+        <f>J2-K2</f>
+        <v>171008000000</v>
+      </c>
+      <c r="S27" s="4">
+        <f>L2-S2</f>
+        <v>109433000000</v>
+      </c>
+      <c r="T27" s="4">
+        <f>74114000000+S2</f>
+        <v>135689000000</v>
+      </c>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Z27" s="4">
+        <f>X2-Z2</f>
+        <v>23576000000</v>
+      </c>
+      <c r="AC27" s="4">
+        <f>Z2+AB2</f>
+        <v>107787000000</v>
+      </c>
+      <c r="AF27" s="4">
+        <f>AC2-AE2</f>
+        <v>88136000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="S28" s="4">
+        <f>J2-T2</f>
+        <v>109433000000</v>
+      </c>
+      <c r="W28" s="4">
+        <f>S28+W2+V2-U2-AB2</f>
+        <v>133144000000</v>
+      </c>
+      <c r="Z28" s="4">
+        <f>W2+V2-U2-AB2</f>
+        <v>23711000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="W29" s="4">
+        <f>W28-X2</f>
+        <v>135000000</v>
+      </c>
+      <c r="Z29" s="4">
+        <f>Z28-Z27</f>
+        <v>135000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="T30" s="4">
+        <f>K8+S8</f>
+        <v>87882000000</v>
+      </c>
+      <c r="W30" s="4">
+        <f>W8</f>
+        <v>4667000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="T31" s="4">
+        <f>J8-T8</f>
+        <v>8891000000</v>
+      </c>
+      <c r="W31" s="4">
+        <f>Z8+W30</f>
+        <v>13558000000</v>
+      </c>
+      <c r="AB31" s="4">
+        <f>AB8-U8+V8</f>
+        <v>172000000</v>
+      </c>
+      <c r="AC31" s="4"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="T32" s="4">
+        <f>T31+W8+V8+U8</f>
+        <v>14780000000</v>
+      </c>
+      <c r="AB32" s="4">
+        <f>Z8+AB8</f>
+        <v>9973000000</v>
+      </c>
+      <c r="AC32">
+        <f>Z15+AB15</f>
+        <v>47284000000</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AM29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="AL2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="AM2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -4163,7 +4283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7E981F-2BC6-4040-BCA9-EBDD355AED79}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
